--- a/Assets/ERang/Excels/EventsData.xlsx
+++ b/Assets/ERang/Excels/EventsData.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Random Event</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EventsID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -111,6 +107,10 @@
   </si>
   <si>
     <t>1001, 1002, 1003, 1004, 1005, 1006, 1007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomEvent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +549,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25"/>
@@ -570,16 +570,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -588,19 +588,19 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -608,10 +608,10 @@
         <v>1001</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3">
         <v>3</v>
@@ -637,7 +637,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3">
         <v>4</v>
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/EventsData.xlsx
+++ b/Assets/ERang/Excels/EventsData.xlsx
@@ -38,80 +38,69 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>EventsID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcludeFloor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EliteBattleLevelGroupID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomEventID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액트1 상점 설정</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
     <t>1, 2, 3, 4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store_01</t>
+  </si>
+  <si>
+    <t>액트1 앨리트 보스</t>
   </si>
   <si>
     <t>EliteBattle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7, 8, 11, 12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EliteBattle_01</t>
   </si>
   <si>
     <t>액트1 랜덤 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventsID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExcludeFloor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EliteBattleLevelGroupID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomEventID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>액트1 상점 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>액트1 앨리트 보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EliteBattle_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomEvent</t>
   </si>
   <si>
     <t>1001, 1002, 1003, 1004, 1005, 1006, 1007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomEvent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -549,7 +538,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25"/>
@@ -570,16 +559,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -588,19 +577,19 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -608,20 +597,20 @@
         <v>1001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3">
         <v>3</v>
@@ -637,22 +626,22 @@
         <v>1002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3">
         <v>4</v>
@@ -670,10 +659,10 @@
         <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -691,7 +680,7 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
